--- a/globe/numbeoCoLData/2014CoL.xlsx
+++ b/globe/numbeoCoLData/2014CoL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="941">
   <si>
     <t xml:space="preserve">Zurich, Switzerland</t>
   </si>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">Jeddah (Jiddah), Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeddah (Jiddah)</t>
+    <t xml:space="preserve">Jeddah</t>
   </si>
   <si>
     <t xml:space="preserve">Sydney, Australia</t>
@@ -1408,7 +1408,7 @@
     <t xml:space="preserve">Zaragoza (Saragossa), Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">Zaragoza (Saragossa)</t>
+    <t xml:space="preserve">Zaragoza</t>
   </si>
   <si>
     <t xml:space="preserve">Montevideo, Uruguay</t>
@@ -2137,15 +2137,12 @@
     <t xml:space="preserve">Krakow (Cracow), Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">Krakow (Cracow)</t>
+    <t xml:space="preserve">Krakow</t>
   </si>
   <si>
     <t xml:space="preserve">Tehran, Iran</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehran</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baghdad, Iraq</t>
   </si>
   <si>
@@ -2839,7 +2836,7 @@
     <t xml:space="preserve">Tiruchirapalli (Trichy), India</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiruchirapalli (Trichy)</t>
+    <t xml:space="preserve">Tiruchirapalli</t>
   </si>
   <si>
     <t xml:space="preserve">Thiruvananthapuram, India</t>
@@ -2955,13 +2952,13 @@
   </sheetPr>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A274" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F289" activeCellId="0" sqref="F289"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A449" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A472" activeCellId="0" sqref="A472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,7 +9004,7 @@
         <v>52.65</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E356" s="0" t="n">
         <v>35.7006177</v>
@@ -9018,13 +9015,13 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>52.58</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E357" s="0" t="n">
         <v>33.3024248</v>
@@ -9035,13 +9032,13 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>52.57</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E358" s="0" t="n">
         <v>53.4302122</v>
@@ -9052,13 +9049,13 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>52.37</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E359" s="0" t="n">
         <v>41.3123363</v>
@@ -9069,13 +9066,13 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>52.28</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E360" s="0" t="n">
         <v>43.8519774</v>
@@ -9086,13 +9083,13 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>52.12</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E361" s="0" t="n">
         <v>44.4361414</v>
@@ -9103,13 +9100,13 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>51.94</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E362" s="0" t="n">
         <v>2.74378195</v>
@@ -9120,13 +9117,13 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>51.91</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E363" s="0" t="n">
         <v>41.31588575</v>
@@ -9137,13 +9134,13 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>51.87</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E364" s="0" t="n">
         <v>51.250559</v>
@@ -9154,13 +9151,13 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>51.83</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E365" s="0" t="n">
         <v>53.902334</v>
@@ -9171,13 +9168,13 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>51.81</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E366" s="0" t="n">
         <v>5.9780066</v>
@@ -9188,13 +9185,13 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>51.75</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E367" s="0" t="n">
         <v>38.9174665</v>
@@ -9205,13 +9202,13 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>51.59</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E368" s="0" t="n">
         <v>42.6977211</v>
@@ -9222,13 +9219,13 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>51.46</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E369" s="0" t="n">
         <v>38.4153421</v>
@@ -9239,13 +9236,13 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>51.44</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E370" s="0" t="n">
         <v>44.7719893</v>
@@ -9256,13 +9253,13 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>51.16</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E371" s="0" t="n">
         <v>38.5762757</v>
@@ -9273,13 +9270,13 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>50.77</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E372" s="0" t="n">
         <v>49.8349139</v>
@@ -9290,13 +9287,13 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>50.74</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E373" s="0" t="n">
         <v>53.132398</v>
@@ -9307,13 +9304,13 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>50.73</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E374" s="0" t="n">
         <v>20.9749006</v>
@@ -9324,13 +9321,13 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>50.32</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E375" s="0" t="n">
         <v>44.1724166</v>
@@ -9341,13 +9338,13 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>49.95</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E376" s="0" t="n">
         <v>-0.220164</v>
@@ -9358,13 +9355,13 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>49.85</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E377" s="0" t="n">
         <v>6.2443382</v>
@@ -9375,13 +9372,13 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>49.81</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E378" s="0" t="n">
         <v>14.55459465</v>
@@ -9392,13 +9389,13 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>49.81</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E379" s="0" t="n">
         <v>1.4953041</v>
@@ -9409,13 +9406,13 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>49.79</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E380" s="0" t="n">
         <v>45.0354329</v>
@@ -9426,13 +9423,13 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>49.72</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E381" s="0" t="n">
         <v>47.161494</v>
@@ -9443,13 +9440,13 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>49.68</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E382" s="0" t="n">
         <v>50.2598987</v>
@@ -9460,13 +9457,13 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>49.51</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E383" s="0" t="n">
         <v>50.4501071</v>
@@ -9477,13 +9474,13 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>49.33</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E384" s="0" t="n">
         <v>45.6523093</v>
@@ -9494,13 +9491,13 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>49.16</v>
       </c>
       <c r="D385" s="0" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E385" s="0" t="n">
         <v>-24.6553194</v>
@@ -9511,13 +9508,13 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>49.11</v>
       </c>
       <c r="D386" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E386" s="0" t="n">
         <v>41.9960924</v>
@@ -9528,13 +9525,13 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>49.04</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E387" s="0" t="n">
         <v>-25.7451737</v>
@@ -9545,13 +9542,13 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>48.84</v>
       </c>
       <c r="D388" s="0" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E388" s="0" t="n">
         <v>-16.6808819</v>
@@ -9562,13 +9559,13 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>48.64</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E389" s="0" t="n">
         <v>36.2974945</v>
@@ -9579,13 +9576,13 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>48.5</v>
       </c>
       <c r="D390" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E390" s="0" t="n">
         <v>46.4846583</v>
@@ -9596,13 +9593,13 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>48.41</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E391" s="0" t="n">
         <v>48.8566101</v>
@@ -9613,13 +9610,13 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>48.38</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E392" s="0" t="n">
         <v>39.9215219</v>
@@ -9630,13 +9627,13 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>47.93</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E393" s="0" t="n">
         <v>45.7538355</v>
@@ -9647,13 +9644,13 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>47.84</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E394" s="0" t="n">
         <v>41.6935247</v>
@@ -9664,13 +9661,13 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>47.77</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E395" s="0" t="n">
         <v>40.7399963</v>
@@ -9681,13 +9678,13 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>47.74</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E396" s="0" t="n">
         <v>50.0374531</v>
@@ -9698,13 +9695,13 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>47.62</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E397" s="0" t="n">
         <v>40.1776121</v>
@@ -9715,13 +9712,13 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>47.61</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E398" s="0" t="n">
         <v>36.9008783</v>
@@ -9732,13 +9729,13 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>47.49</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E399" s="0" t="n">
         <v>-33.961705</v>
@@ -9749,13 +9746,13 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>47.38</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E400" s="0" t="n">
         <v>46.7693367</v>
@@ -9766,13 +9763,13 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>47.07</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E401" s="0" t="n">
         <v>5.4065013</v>
@@ -9783,13 +9780,13 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>47.05</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E402" s="0" t="n">
         <v>47.0569272</v>
@@ -9800,13 +9797,13 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>47.03</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E403" s="0" t="n">
         <v>48.0158753</v>
@@ -9817,13 +9814,13 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>46.96</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E404" s="0" t="n">
         <v>43.2166104</v>
@@ -9834,13 +9831,13 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B405" s="0" t="n">
         <v>46.83</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E405" s="0" t="n">
         <v>-33.9289916</v>
@@ -9851,13 +9848,13 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B406" s="0" t="n">
         <v>46.76</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E406" s="0" t="n">
         <v>49.9902794</v>
@@ -9868,13 +9865,13 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B407" s="0" t="n">
         <v>46.72</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E407" s="0" t="n">
         <v>42.6639939</v>
@@ -9885,13 +9882,13 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B408" s="0" t="n">
         <v>46.46</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E408" s="0" t="n">
         <v>42.1419118</v>
@@ -9902,13 +9899,13 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B409" s="0" t="n">
         <v>46.25</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E409" s="0" t="n">
         <v>33.5949733</v>
@@ -9919,13 +9916,13 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B410" s="0" t="n">
         <v>46.12</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E410" s="0" t="n">
         <v>32.6707877</v>
@@ -9936,13 +9933,13 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B411" s="0" t="n">
         <v>45.78</v>
       </c>
       <c r="D411" s="0" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E411" s="0" t="n">
         <v>49.841952</v>
@@ -9953,13 +9950,13 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B412" s="0" t="n">
         <v>45.65</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E412" s="0" t="n">
         <v>43.321504</v>
@@ -9970,13 +9967,13 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B413" s="0" t="n">
         <v>45.62</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E413" s="0" t="n">
         <v>-6.1753941</v>
@@ -9987,13 +9984,13 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B414" s="0" t="n">
         <v>45.58</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E414" s="0" t="n">
         <v>10.7758439</v>
@@ -10004,13 +10001,13 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B415" s="0" t="n">
         <v>45.57</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E415" s="0" t="n">
         <v>48.4680221</v>
@@ -10021,13 +10018,13 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B416" s="0" t="n">
         <v>45.39</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E416" s="0" t="n">
         <v>40.0681156</v>
@@ -10038,13 +10035,13 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B417" s="0" t="n">
         <v>45.26</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E417" s="0" t="n">
         <v>14.6509905</v>
@@ -10055,13 +10052,13 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B418" s="0" t="n">
         <v>45.25</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E418" s="0" t="n">
         <v>33.5130695</v>
@@ -10072,13 +10069,13 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B419" s="0" t="n">
         <v>44.84</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E419" s="0" t="n">
         <v>20.8542575</v>
@@ -10089,13 +10086,13 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>44.28</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E420" s="0" t="n">
         <v>12.9318593</v>
@@ -10106,13 +10103,13 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>44.14</v>
       </c>
       <c r="D421" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E421" s="0" t="n">
         <v>14.5906216</v>
@@ -10123,13 +10120,13 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B422" s="0" t="n">
         <v>43.92</v>
       </c>
       <c r="D422" s="0" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E422" s="0" t="n">
         <v>20.69820775</v>
@@ -10140,13 +10137,13 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>43.79</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E423" s="0" t="n">
         <v>29.6099483</v>
@@ -10157,13 +10154,13 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>43.7</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E424" s="0" t="n">
         <v>6.9349969</v>
@@ -10174,13 +10171,13 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>43.68</v>
       </c>
       <c r="D425" s="0" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E425" s="0" t="n">
         <v>-29.8618253</v>
@@ -10191,13 +10188,13 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>43.54</v>
       </c>
       <c r="D426" s="0" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E426" s="0" t="n">
         <v>1.560091</v>
@@ -10208,13 +10205,13 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B427" s="0" t="n">
         <v>43.22</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E427" s="0" t="n">
         <v>10.45</v>
@@ -10225,13 +10222,13 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B428" s="0" t="n">
         <v>42.84</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E428" s="0" t="n">
         <v>3.2083304</v>
@@ -10242,13 +10239,13 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>42.62</v>
       </c>
       <c r="D429" s="0" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E429" s="0" t="n">
         <v>23.7593572</v>
@@ -10259,13 +10256,13 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B430" s="0" t="n">
         <v>42.36</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E430" s="0" t="n">
         <v>33.8439408</v>
@@ -10276,13 +10273,13 @@
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B431" s="0" t="n">
         <v>41.99</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E431" s="0" t="n">
         <v>28.0000272</v>
@@ -10293,13 +10290,13 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>41.65</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E432" s="0" t="n">
         <v>47.0122737</v>
@@ -10310,13 +10307,13 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B433" s="0" t="n">
         <v>41.04</v>
       </c>
       <c r="D433" s="0" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E433" s="0" t="n">
         <v>-6.9344693</v>
@@ -10327,13 +10324,13 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B434" s="0" t="n">
         <v>40.44</v>
       </c>
       <c r="D434" s="0" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E434" s="0" t="n">
         <v>18.7905618</v>
@@ -10344,13 +10341,13 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B435" s="0" t="n">
         <v>39.58</v>
       </c>
       <c r="D435" s="0" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E435" s="0" t="n">
         <v>30.0488185</v>
@@ -10361,13 +10358,13 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B436" s="0" t="n">
         <v>38.71</v>
       </c>
       <c r="D436" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E436" s="0" t="n">
         <v>-16.4956405</v>
@@ -10378,13 +10375,13 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B437" s="0" t="n">
         <v>38.46</v>
       </c>
       <c r="D437" s="0" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E437" s="0" t="n">
         <v>31.1990035</v>
@@ -10395,13 +10392,13 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B438" s="0" t="n">
         <v>37.49</v>
       </c>
       <c r="D438" s="0" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E438" s="0" t="n">
         <v>6.610975</v>
@@ -10412,13 +10409,13 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B439" s="0" t="n">
         <v>36.77</v>
       </c>
       <c r="D439" s="0" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E439" s="0" t="n">
         <v>-7.2459716</v>
@@ -10429,13 +10426,13 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>34.36</v>
       </c>
       <c r="D440" s="0" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E440" s="0" t="n">
         <v>31.5621916</v>
@@ -10446,13 +10443,13 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>34.05</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E441" s="0" t="n">
         <v>-7.7829246</v>
@@ -10463,13 +10460,13 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B442" s="0" t="n">
         <v>32.57</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E442" s="0" t="n">
         <v>19.1943294</v>
@@ -10480,13 +10477,13 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>32.33</v>
       </c>
       <c r="D443" s="0" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E443" s="0" t="n">
         <v>28.4646148</v>
@@ -10497,13 +10494,13 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>32.01</v>
       </c>
       <c r="D444" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E444" s="0" t="n">
         <v>33.6945756</v>
@@ -10514,13 +10511,13 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>31.82</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E445" s="0" t="n">
         <v>27.7087963</v>
@@ -10531,13 +10528,13 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B446" s="0" t="n">
         <v>31.34</v>
       </c>
       <c r="D446" s="0" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E446" s="0" t="n">
         <v>18.9321862</v>
@@ -10548,13 +10545,13 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>31.1</v>
       </c>
       <c r="D447" s="0" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E447" s="0" t="n">
         <v>33.5991484</v>
@@ -10565,13 +10562,13 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B448" s="0" t="n">
         <v>30.78</v>
       </c>
       <c r="D448" s="0" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E448" s="0" t="n">
         <v>15.3004543</v>
@@ -10582,13 +10579,13 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B449" s="0" t="n">
         <v>30.48</v>
       </c>
       <c r="D449" s="0" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E449" s="0" t="n">
         <v>28.6517178</v>
@@ -10599,13 +10596,13 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B450" s="0" t="n">
         <v>29.72</v>
       </c>
       <c r="D450" s="0" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E450" s="0" t="n">
         <v>24.8667795</v>
@@ -10616,13 +10613,13 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B451" s="0" t="n">
         <v>29.58</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E451" s="0" t="n">
         <v>28.5726442</v>
@@ -10633,13 +10630,13 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B452" s="0" t="n">
         <v>28.49</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E452" s="0" t="n">
         <v>19.0215214</v>
@@ -10650,13 +10647,13 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B453" s="0" t="n">
         <v>28.32</v>
       </c>
       <c r="D453" s="0" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E453" s="0" t="n">
         <v>18.64395815</v>
@@ -10667,13 +10664,13 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B454" s="0" t="n">
         <v>28.3</v>
       </c>
       <c r="D454" s="0" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E454" s="0" t="n">
         <v>12.9791198</v>
@@ -10684,13 +10681,13 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B455" s="0" t="n">
         <v>27.2</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E455" s="0" t="n">
         <v>26.9161293</v>
@@ -10701,13 +10698,13 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B456" s="0" t="n">
         <v>27.12</v>
       </c>
       <c r="D456" s="0" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E456" s="0" t="n">
         <v>13.0796914</v>
@@ -10718,13 +10715,13 @@
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B457" s="0" t="n">
         <v>27.06</v>
       </c>
       <c r="D457" s="0" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E457" s="0" t="n">
         <v>23.0216238</v>
@@ -10735,13 +10732,13 @@
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B458" s="0" t="n">
         <v>26.96</v>
       </c>
       <c r="D458" s="0" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E458" s="0" t="n">
         <v>21.1500964</v>
@@ -10752,13 +10749,13 @@
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B459" s="0" t="n">
         <v>26.76</v>
       </c>
       <c r="D459" s="0" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E459" s="0" t="n">
         <v>23.2530923</v>
@@ -10769,13 +10766,13 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B460" s="0" t="n">
         <v>26.41</v>
       </c>
       <c r="D460" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E460" s="0" t="n">
         <v>17.7231276</v>
@@ -10786,13 +10783,13 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B461" s="0" t="n">
         <v>26.34</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E461" s="0" t="n">
         <v>30.7204507</v>
@@ -10803,13 +10800,13 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B462" s="0" t="n">
         <v>26.18</v>
       </c>
       <c r="D462" s="0" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E462" s="0" t="n">
         <v>22.5677459</v>
@@ -10820,13 +10817,13 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B463" s="0" t="n">
         <v>26.15</v>
       </c>
       <c r="D463" s="0" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E463" s="0" t="n">
         <v>21.1864607</v>
@@ -10837,13 +10834,13 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B464" s="0" t="n">
         <v>25.81</v>
       </c>
       <c r="D464" s="0" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E464" s="0" t="n">
         <v>9.9633864</v>
@@ -10854,13 +10851,13 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B465" s="0" t="n">
         <v>25.73</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E465" s="0" t="n">
         <v>20.216667</v>
@@ -10871,13 +10868,13 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B466" s="0" t="n">
         <v>25.66</v>
       </c>
       <c r="D466" s="0" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E466" s="0" t="n">
         <v>22.3177543</v>
@@ -10888,13 +10885,13 @@
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>25.56</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E467" s="0" t="n">
         <v>17.3616227</v>
@@ -10905,13 +10902,13 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B468" s="0" t="n">
         <v>24.85</v>
       </c>
       <c r="D468" s="0" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E468" s="0" t="n">
         <v>11.0018115</v>
@@ -10922,13 +10919,13 @@
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B469" s="0" t="n">
         <v>24.77</v>
       </c>
       <c r="D469" s="0" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E469" s="0" t="n">
         <v>20.2603328</v>
@@ -10939,13 +10936,13 @@
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B470" s="0" t="n">
         <v>24.18</v>
       </c>
       <c r="D470" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E470" s="0" t="n">
         <v>30.79197145</v>
@@ -10956,13 +10953,13 @@
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B471" s="0" t="n">
         <v>23.94</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E471" s="0" t="n">
         <v>22.7140354</v>
@@ -10973,13 +10970,13 @@
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>23.23</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E472" s="0" t="n">
         <v>10.76208595</v>
@@ -10990,13 +10987,13 @@
     </row>
     <row r="473" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B473" s="1" t="n">
         <v>21.17</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E473" s="0" t="n">
         <v>8.5058909</v>
